--- a/Question_Set2/Programming skills/React Native.xlsx
+++ b/Question_Set2/Programming skills/React Native.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The layouts in React Native are handled using Flexbox. To render elements side by side horizontally, which of the following properties would you use?', 'ques_type': 2, 'options': ['flex: ‘row’', 'flexDirection: ‘row’', 'flexbox: ‘row’', 'justifyContent: true'], 'score': 'flexDirection: ‘row’'}, {'title': 'To reuse the component logic in React, you can use a higher-order component. What is a higher-order component?', 'ques_type': 2, 'options': ['A function that takes a component and overrides it.', 'A function that takes a component and extends it.', 'A function that takes a component and returns another component.', 'A function that takes a component and overrides its render function.'], 'score': 'A function that takes a component and returns another component.'}, {'title': 'Which of the following must you use to sign iOS apps before publishing?', 'ques_type': 2, 'options': ['Distribution profile, distribution certificate, and developer signature', 'Developer profile and distribution certificate', 'Distribution profile and distribution certificate', 'Developer profile and developer certificate'], 'score': 'Distribution profile and distribution certificate'}, {'title': 'Which of the following tools would you use to debug the performance of a React Native Android app?', 'ques_type': 2, 'options': ['systrace', 'perfmon', 'lighthouse', 'chrome dev tools'], 'score': 'systrace'}]</t>
+    <t>questions = [
+    {
+        "title": "The layouts in React Native are handled using Flexbox. To render elements side by side horizontally, which of the following properties would you use?",
+        "ques_type": 2,
+        "options": [
+            "flex: \u2018row\u2019",
+            "flexDirection: \u2018row\u2019",
+            "flexbox: \u2018row\u2019",
+            "justifyContent: true"
+        ],
+        "score": "flexDirection: \u2018row\u2019"
+    },
+    {
+        "title": "To reuse the component logic in React, you can use a higher-order component. What is a higher-order component?",
+        "ques_type": 2,
+        "options": [
+            "A function that takes a component and overrides it.",
+            "A function that takes a component and extends it.",
+            "A function that takes a component and returns another component.",
+            "A function that takes a component and overrides its render function."
+        ],
+        "score": "A function that takes a component and returns another component."
+    },
+    {
+        "title": "Which of the following must you use to sign iOS apps before publishing?",
+        "ques_type": 2,
+        "options": [
+            "Distribution profile, distribution certificate, and developer signature",
+            "Developer profile and distribution certificate",
+            "Distribution profile and distribution certificate",
+            "Developer profile and developer certificate"
+        ],
+        "score": "Distribution profile and distribution certificate"
+    },
+    {
+        "title": "Which of the following tools would you use to debug the performance of a React Native Android app?",
+        "ques_type": 2,
+        "options": [
+            "systrace",
+            "perfmon",
+            "lighthouse",
+            "chrome dev tools"
+        ],
+        "score": "systrace"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
